--- a/2_Screening/peerReview.xlsx
+++ b/2_Screening/peerReview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\GitHub\metaanalysisT2D\2_Screening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF07C70A-4842-4BD8-AE70-6AE1DC347D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABCA679-E49A-4C5A-BF9F-1B68741466FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{B5EA034A-DDFD-49D9-AD86-18659CC6861E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B5EA034A-DDFD-49D9-AD86-18659CC6861E}"/>
   </bookViews>
   <sheets>
     <sheet name="PerezLois" sheetId="2" r:id="rId1"/>
@@ -3675,12 +3675,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.53515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1031</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>15</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>16</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>17</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>18</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>22</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>26</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>27</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>33</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>34</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>38</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>40</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>41</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>42</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>46</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>50</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>54</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>57</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>61</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>69</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>70</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>73</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>84</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>87</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>93</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>96</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>99</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>103</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>117</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>120</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>124</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>129</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>131</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>134</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>135</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>137</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>139</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>144</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>145</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>154</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>156</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>160</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>166</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>167</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>172</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>174</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>177</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>180</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>182</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>183</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>199</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>201</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>202</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>208</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>209</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>215</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>231</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>233</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>236</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>237</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>240</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>306</v>
       </c>
       <c r="C63" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E63" t="s">
         <v>307</v>
@@ -5458,7 +5458,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>243</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>245</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>275</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>280</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>284</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>299</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>300</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>304</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>305</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>311</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>312</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>332</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>341</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>347</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>361</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>362</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>371</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>373</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>376</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>377</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>379</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>381</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>382</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>385</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>388</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>415</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>417</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>420</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>425</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>427</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>430</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>432</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>436</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>437</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>440</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>446</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>447</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>452</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>462</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>473</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>474</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>477</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>478</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>483</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>498</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>499</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>504</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>511</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>520</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>524</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>528</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>531</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>534</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>537</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>538</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>545</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>549</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>557</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>603</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>612</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>627</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>632</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>640</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>651</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>673</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>675</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>680</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>681</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>686</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>720</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>724</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>733</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>739</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>756</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>758</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>770</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>773</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>804</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>842</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>848</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>852</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>867</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>895</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>896</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>910</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>912</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>915</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>944</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>945</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>957</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>974</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>978</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>982</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>984</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>997</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1027</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1039</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1046</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1047</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1053</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1070</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1077</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1097</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1098</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1103</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>796</v>
       </c>
       <c r="C168" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E168" t="s">
         <v>797</v>
@@ -8188,7 +8188,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1133</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1136</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1138</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1139</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1144</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1154</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1156</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1168</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1169</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1171</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1172</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1233</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1237</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1245</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1246</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1250</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1257</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1274</v>
       </c>
@@ -8682,13 +8682,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681A12C9-6ED0-4053-8AEA-40C334359CA0}">
   <dimension ref="A1:I186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>1031</v>
       </c>
@@ -8717,7 +8715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8746,7 +8744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -8775,7 +8773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -8804,7 +8802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
@@ -8833,7 +8831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
@@ -8862,7 +8860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22</v>
       </c>
@@ -8891,7 +8889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -8920,7 +8918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>27</v>
       </c>
@@ -8949,7 +8947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>33</v>
       </c>
@@ -8978,7 +8976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>34</v>
       </c>
@@ -9007,7 +9005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>38</v>
       </c>
@@ -9036,7 +9034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40</v>
       </c>
@@ -9065,7 +9063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -9094,7 +9092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>42</v>
       </c>
@@ -9123,7 +9121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -9152,7 +9150,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>46</v>
       </c>
@@ -9181,7 +9179,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50</v>
       </c>
@@ -9210,7 +9208,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>54</v>
       </c>
@@ -9239,7 +9237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>57</v>
       </c>
@@ -9268,7 +9266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>61</v>
       </c>
@@ -9297,7 +9295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>69</v>
       </c>
@@ -9326,7 +9324,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>70</v>
       </c>
@@ -9355,7 +9353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>73</v>
       </c>
@@ -9384,7 +9382,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>84</v>
       </c>
@@ -9413,7 +9411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>87</v>
       </c>
@@ -9442,7 +9440,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>93</v>
       </c>
@@ -9471,7 +9469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>96</v>
       </c>
@@ -9500,7 +9498,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>99</v>
       </c>
@@ -9529,7 +9527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>103</v>
       </c>
@@ -9558,7 +9556,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>117</v>
       </c>
@@ -9587,7 +9585,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>120</v>
       </c>
@@ -9616,7 +9614,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>124</v>
       </c>
@@ -9645,7 +9643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>129</v>
       </c>
@@ -9674,7 +9672,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>131</v>
       </c>
@@ -9703,7 +9701,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>134</v>
       </c>
@@ -9732,7 +9730,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>135</v>
       </c>
@@ -9761,7 +9759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>137</v>
       </c>
@@ -9790,7 +9788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>139</v>
       </c>
@@ -9819,7 +9817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>144</v>
       </c>
@@ -9848,7 +9846,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>145</v>
       </c>
@@ -9877,7 +9875,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>154</v>
       </c>
@@ -9906,7 +9904,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>156</v>
       </c>
@@ -9935,7 +9933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>160</v>
       </c>
@@ -9964,7 +9962,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>166</v>
       </c>
@@ -9993,7 +9991,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>167</v>
       </c>
@@ -10022,7 +10020,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>172</v>
       </c>
@@ -10051,7 +10049,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>174</v>
       </c>
@@ -10080,7 +10078,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>177</v>
       </c>
@@ -10109,7 +10107,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>180</v>
       </c>
@@ -10138,7 +10136,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>182</v>
       </c>
@@ -10167,7 +10165,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>183</v>
       </c>
@@ -10196,7 +10194,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>199</v>
       </c>
@@ -10225,7 +10223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>201</v>
       </c>
@@ -10254,7 +10252,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>202</v>
       </c>
@@ -10283,7 +10281,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>208</v>
       </c>
@@ -10312,7 +10310,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>209</v>
       </c>
@@ -10341,7 +10339,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>215</v>
       </c>
@@ -10370,7 +10368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>231</v>
       </c>
@@ -10399,7 +10397,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>233</v>
       </c>
@@ -10428,7 +10426,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>236</v>
       </c>
@@ -10457,7 +10455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>237</v>
       </c>
@@ -10486,7 +10484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>240</v>
       </c>
@@ -10515,7 +10513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>243</v>
       </c>
@@ -10544,7 +10542,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>245</v>
       </c>
@@ -10573,7 +10571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>275</v>
       </c>
@@ -10602,7 +10600,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>280</v>
       </c>
@@ -10631,7 +10629,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>284</v>
       </c>
@@ -10660,7 +10658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>299</v>
       </c>
@@ -10689,7 +10687,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>300</v>
       </c>
@@ -10718,7 +10716,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>304</v>
       </c>
@@ -10747,7 +10745,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>305</v>
       </c>
@@ -10776,7 +10774,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>311</v>
       </c>
@@ -10805,7 +10803,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>312</v>
       </c>
@@ -10834,7 +10832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>332</v>
       </c>
@@ -10863,7 +10861,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>341</v>
       </c>
@@ -10892,7 +10890,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>347</v>
       </c>
@@ -10921,7 +10919,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>361</v>
       </c>
@@ -10950,7 +10948,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>362</v>
       </c>
@@ -10979,7 +10977,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>371</v>
       </c>
@@ -11008,7 +11006,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>373</v>
       </c>
@@ -11037,7 +11035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>376</v>
       </c>
@@ -11066,7 +11064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>377</v>
       </c>
@@ -11095,7 +11093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>379</v>
       </c>
@@ -11124,7 +11122,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>381</v>
       </c>
@@ -11153,7 +11151,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>382</v>
       </c>
@@ -11182,7 +11180,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>385</v>
       </c>
@@ -11211,7 +11209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>388</v>
       </c>
@@ -11240,7 +11238,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>415</v>
       </c>
@@ -11269,7 +11267,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>417</v>
       </c>
@@ -11298,7 +11296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>420</v>
       </c>
@@ -11327,7 +11325,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>425</v>
       </c>
@@ -11356,7 +11354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>427</v>
       </c>
@@ -11385,7 +11383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>430</v>
       </c>
@@ -11414,7 +11412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>432</v>
       </c>
@@ -11443,7 +11441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>436</v>
       </c>
@@ -11472,7 +11470,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>437</v>
       </c>
@@ -11501,7 +11499,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>440</v>
       </c>
@@ -11530,7 +11528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>446</v>
       </c>
@@ -11559,7 +11557,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>447</v>
       </c>
@@ -11588,7 +11586,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>452</v>
       </c>
@@ -11617,7 +11615,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>462</v>
       </c>
@@ -11646,7 +11644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>473</v>
       </c>
@@ -11675,7 +11673,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>474</v>
       </c>
@@ -11704,7 +11702,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>477</v>
       </c>
@@ -11733,7 +11731,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>478</v>
       </c>
@@ -11762,7 +11760,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>483</v>
       </c>
@@ -11791,7 +11789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>498</v>
       </c>
@@ -11820,7 +11818,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>499</v>
       </c>
@@ -11849,7 +11847,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>504</v>
       </c>
@@ -11878,7 +11876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>511</v>
       </c>
@@ -11907,7 +11905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>520</v>
       </c>
@@ -11936,7 +11934,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>524</v>
       </c>
@@ -11965,7 +11963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>528</v>
       </c>
@@ -11994,7 +11992,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>531</v>
       </c>
@@ -12023,7 +12021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>534</v>
       </c>
@@ -12052,7 +12050,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>537</v>
       </c>
@@ -12081,7 +12079,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>538</v>
       </c>
@@ -12110,7 +12108,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>545</v>
       </c>
@@ -12139,7 +12137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>549</v>
       </c>
@@ -12168,7 +12166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>557</v>
       </c>
@@ -12197,7 +12195,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>603</v>
       </c>
@@ -12226,7 +12224,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>612</v>
       </c>
@@ -12255,7 +12253,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>627</v>
       </c>
@@ -12284,7 +12282,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>632</v>
       </c>
@@ -12313,7 +12311,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>640</v>
       </c>
@@ -12342,7 +12340,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>651</v>
       </c>
@@ -12371,7 +12369,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>673</v>
       </c>
@@ -12400,7 +12398,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>675</v>
       </c>
@@ -12429,7 +12427,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>680</v>
       </c>
@@ -12458,7 +12456,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>681</v>
       </c>
@@ -12487,7 +12485,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>686</v>
       </c>
@@ -12516,7 +12514,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>720</v>
       </c>
@@ -12545,7 +12543,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>724</v>
       </c>
@@ -12574,7 +12572,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>733</v>
       </c>
@@ -12603,7 +12601,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>739</v>
       </c>
@@ -12632,7 +12630,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>756</v>
       </c>
@@ -12661,7 +12659,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>758</v>
       </c>
@@ -12690,7 +12688,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>770</v>
       </c>
@@ -12719,7 +12717,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>773</v>
       </c>
@@ -12748,7 +12746,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>804</v>
       </c>
@@ -12777,7 +12775,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>842</v>
       </c>
@@ -12806,7 +12804,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>848</v>
       </c>
@@ -12835,7 +12833,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>852</v>
       </c>
@@ -12864,7 +12862,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>867</v>
       </c>
@@ -12893,7 +12891,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>895</v>
       </c>
@@ -12922,7 +12920,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>896</v>
       </c>
@@ -12951,7 +12949,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>910</v>
       </c>
@@ -12980,7 +12978,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>912</v>
       </c>
@@ -13009,7 +13007,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>915</v>
       </c>
@@ -13038,7 +13036,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>944</v>
       </c>
@@ -13067,7 +13065,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>945</v>
       </c>
@@ -13096,7 +13094,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>957</v>
       </c>
@@ -13125,7 +13123,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>974</v>
       </c>
@@ -13154,7 +13152,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>978</v>
       </c>
@@ -13183,7 +13181,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>982</v>
       </c>
@@ -13212,7 +13210,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>984</v>
       </c>
@@ -13241,7 +13239,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>997</v>
       </c>
@@ -13270,7 +13268,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1027</v>
       </c>
@@ -13299,7 +13297,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1039</v>
       </c>
@@ -13328,7 +13326,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1046</v>
       </c>
@@ -13357,7 +13355,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1047</v>
       </c>
@@ -13386,7 +13384,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1053</v>
       </c>
@@ -13415,7 +13413,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1070</v>
       </c>
@@ -13444,7 +13442,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1077</v>
       </c>
@@ -13473,7 +13471,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1097</v>
       </c>
@@ -13502,7 +13500,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1098</v>
       </c>
@@ -13531,7 +13529,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1103</v>
       </c>
@@ -13560,7 +13558,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1133</v>
       </c>
@@ -13586,7 +13584,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1136</v>
       </c>
@@ -13615,7 +13613,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1138</v>
       </c>
@@ -13644,7 +13642,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1139</v>
       </c>
@@ -13673,7 +13671,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1144</v>
       </c>
@@ -13702,7 +13700,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1154</v>
       </c>
@@ -13731,7 +13729,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1156</v>
       </c>
@@ -13760,7 +13758,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1168</v>
       </c>
@@ -13789,7 +13787,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1169</v>
       </c>
@@ -13818,7 +13816,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1171</v>
       </c>
@@ -13847,7 +13845,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1172</v>
       </c>
@@ -13876,7 +13874,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1233</v>
       </c>
@@ -13905,7 +13903,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1237</v>
       </c>
@@ -13934,7 +13932,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1245</v>
       </c>
@@ -13963,7 +13961,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1246</v>
       </c>
@@ -13992,7 +13990,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1250</v>
       </c>
@@ -14021,7 +14019,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1257</v>
       </c>
@@ -14050,7 +14048,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1274</v>
       </c>
